--- a/src/testData/fileWithoutID.xlsx
+++ b/src/testData/fileWithoutID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewhartmann/Documents/project_elevate/src/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nflet\Desktop\project_elevate\src\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF0DA58-B6BB-954C-B14E-D3339F7E7670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172424A-C159-4105-BD9F-FDC53768F482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{A3C2142A-4549-314D-B15D-6669A783DCC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3C2142A-4549-314D-B15D-6669A783DCC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Course Name</t>
-  </si>
-  <si>
-    <t>Completed Dt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>Doe</t>
   </si>
@@ -107,16 +92,10 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Due Dt</t>
-  </si>
-  <si>
     <t>Nicholas</t>
   </si>
   <si>
     <t>RandomCourse</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>johndoe@email.com</t>
@@ -515,55 +494,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C891904-AD6F-0F41-A829-FDFB95408093}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45535</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>45535</v>
@@ -572,21 +551,21 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>45535</v>
@@ -595,134 +574,134 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45534</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45535</v>
-      </c>
-      <c r="G4" s="1">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="1">
-        <v>45534</v>
+        <v>45533</v>
       </c>
       <c r="G7" s="1">
         <v>45505</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
         <v>45533</v>
       </c>
       <c r="G8" s="1">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>45533</v>
@@ -731,90 +710,90 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
         <v>45533</v>
       </c>
       <c r="G10" s="1">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>45533</v>
+        <v>45532</v>
       </c>
       <c r="G11" s="1">
         <v>45505</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
       </c>
       <c r="F12" s="1">
         <v>45532</v>
       </c>
       <c r="G12" s="1">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>45532</v>
@@ -823,21 +802,21 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1">
         <v>45532</v>
@@ -846,21 +825,21 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1">
         <v>45532</v>
@@ -869,88 +848,65 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1">
-        <v>45532</v>
+        <v>36526</v>
       </c>
       <c r="G16" s="1">
-        <v>45536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>36526</v>
       </c>
       <c r="G17" s="1">
-        <v>36527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1">
-        <v>36526</v>
-      </c>
-      <c r="G18" s="1">
         <v>36161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{32994A22-DD90-954C-ADBE-B0EAA3272CAB}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5C34E5C7-4ED7-B24B-A5EA-01C092A0E9A2}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{AF81934F-58D3-7E47-B464-771FE950A359}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{6EA58FFB-D567-0A4E-8822-1A85BD8CF17B}"/>
-    <hyperlink ref="C6:C8" r:id="rId5" display="andrewh@myspace.com" xr:uid="{14286B56-3A50-7743-BDF7-2BC9461D07D6}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{098AC796-AE91-DF40-95E5-D77FBC9902B5}"/>
-    <hyperlink ref="C10:C12" r:id="rId7" display="nfeltcher@yahoo.com" xr:uid="{812EA856-0496-5142-AC2A-B1C4CCA69C98}"/>
-    <hyperlink ref="C13" r:id="rId8" xr:uid="{CFC89CC1-C13D-3140-B6E1-3C7F183C94F8}"/>
-    <hyperlink ref="C14:C16" r:id="rId9" display="john.cena@gmail.com" xr:uid="{68C93B5A-570B-CC49-9EFB-872498DD2ACB}"/>
-    <hyperlink ref="C18" r:id="rId10" xr:uid="{95A5EA46-B780-7548-BA71-D6B74B5F764C}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{BFC53941-171D-F04D-B9D7-E81DBFEE1233}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{32994A22-DD90-954C-ADBE-B0EAA3272CAB}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5C34E5C7-4ED7-B24B-A5EA-01C092A0E9A2}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{AF81934F-58D3-7E47-B464-771FE950A359}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{6EA58FFB-D567-0A4E-8822-1A85BD8CF17B}"/>
+    <hyperlink ref="C5:C7" r:id="rId5" display="andrewh@myspace.com" xr:uid="{14286B56-3A50-7743-BDF7-2BC9461D07D6}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{098AC796-AE91-DF40-95E5-D77FBC9902B5}"/>
+    <hyperlink ref="C9:C11" r:id="rId7" display="nfeltcher@yahoo.com" xr:uid="{812EA856-0496-5142-AC2A-B1C4CCA69C98}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{CFC89CC1-C13D-3140-B6E1-3C7F183C94F8}"/>
+    <hyperlink ref="C13:C15" r:id="rId9" display="john.cena@gmail.com" xr:uid="{68C93B5A-570B-CC49-9EFB-872498DD2ACB}"/>
+    <hyperlink ref="C17" r:id="rId10" xr:uid="{95A5EA46-B780-7548-BA71-D6B74B5F764C}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{BFC53941-171D-F04D-B9D7-E81DBFEE1233}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
